--- a/websitetesttoeic.frontend/public/LuanVan_Demo/MiniTest.xlsx
+++ b/websitetesttoeic.frontend/public/LuanVan_Demo/MiniTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ty\websitetesttoeic.frontend\public\LuanVan_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888CD32-60C1-4501-B0EC-9D035BA50C76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7FCED4-10CC-4F69-AD38-5BAC2B83C28E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>AudioFile</t>
-  </si>
-  <si>
-    <t>ContentQuestion</t>
-  </si>
-  <si>
-    <t>ContentScript</t>
-  </si>
-  <si>
-    <t>NumPart</t>
-  </si>
-  <si>
     <t>ContentAnswer</t>
   </si>
   <si>
@@ -71,6 +56,21 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>numPart</t>
+  </si>
+  <si>
+    <t>contentQuestion</t>
+  </si>
+  <si>
+    <t>contentScript</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>audioFile</t>
   </si>
   <si>
     <t>Mini Test</t>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,16 +128,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,40 +151,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,200 +388,202 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
